--- a/test/BankIndonesia2019_T12_normal.xlsx
+++ b/test/BankIndonesia2019_T12_normal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\.juliapro\JuliaPro_v1.4.2-1\dev\Tomato\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0159FD15-B0BA-402D-BC8D-94E23064D467}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6239789F-3C12-464F-BBA9-376E8DFC49A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="600" windowWidth="13815" windowHeight="10920" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vertices" sheetId="1" r:id="rId1"/>
@@ -799,36 +799,6 @@
   </cellStyles>
   <dxfs count="62">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -954,7 +924,14 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -999,6 +976,16 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -1036,6 +1023,19 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1288,7 +1288,7 @@
   <autoFilter ref="A1:H972" xr:uid="{1930B01D-2308-4946-B31E-991EB4AF75F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Lampung"/>
+        <filter val="Pontianak"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1328,60 +1328,60 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4619E44B-A940-4A89-8758-FB63E0676509}" name="Table5" displayName="Table5" ref="A1:M47" totalsRowShown="0" headerRowDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4619E44B-A940-4A89-8758-FB63E0676509}" name="Table5" displayName="Table5" ref="A1:M47" totalsRowShown="0" headerRowDxfId="45">
   <autoFilter ref="A1:M47" xr:uid="{EEE5A3FA-F8C6-487C-8AA9-46DD23722EC6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M47">
     <sortCondition ref="A1:A47"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{8D4D3B46-2D48-4821-826A-416B97C3F5A3}" name="point" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{F0E3E28C-94B1-4A14-B589-365A77609858}" name="1" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{75B4F908-F004-4AAC-9636-EBD37D1BEEA3}" name="2" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{88C6A795-CB8A-48D7-B005-FE824C6C9796}" name="3" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{0E50EB61-8391-43ED-AE7B-F9803C0B86D2}" name="4" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{69C8B830-D3B8-401D-B71C-379D97E6D0EF}" name="5" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{9916F60B-CD73-4C53-B4DE-85EC17118CCF}" name="6" dataDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{3DA3197C-B2A1-418F-80CF-B1F32385664C}" name="7" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{54A0B336-D962-44A9-8702-5C79B03661FF}" name="8" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{141513A6-B520-4810-A77F-CA207AFA357D}" name="9" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{A66999F5-CC58-48CA-8FFA-976644770990}" name="10" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{9B2BB300-3B08-4596-B312-B03C0362EB01}" name="11" dataDxfId="34"/>
-    <tableColumn id="13" xr3:uid="{7E6C76C4-914D-45CF-9D9E-DBC985C473B8}" name="12" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{8D4D3B46-2D48-4821-826A-416B97C3F5A3}" name="point" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{F0E3E28C-94B1-4A14-B589-365A77609858}" name="1" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{75B4F908-F004-4AAC-9636-EBD37D1BEEA3}" name="2" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{88C6A795-CB8A-48D7-B005-FE824C6C9796}" name="3" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{0E50EB61-8391-43ED-AE7B-F9803C0B86D2}" name="4" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{69C8B830-D3B8-401D-B71C-379D97E6D0EF}" name="5" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{9916F60B-CD73-4C53-B4DE-85EC17118CCF}" name="6" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{3DA3197C-B2A1-418F-80CF-B1F32385664C}" name="7" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{54A0B336-D962-44A9-8702-5C79B03661FF}" name="8" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{141513A6-B520-4810-A77F-CA207AFA357D}" name="9" dataDxfId="35"/>
+    <tableColumn id="11" xr3:uid="{A66999F5-CC58-48CA-8FFA-976644770990}" name="10" dataDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{9B2BB300-3B08-4596-B312-B03C0362EB01}" name="11" dataDxfId="33"/>
+    <tableColumn id="13" xr3:uid="{7E6C76C4-914D-45CF-9D9E-DBC985C473B8}" name="12" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D92C2784-C2DF-42F2-92FF-5ECA29492552}" name="Table55" displayName="Table55" ref="A1:M47" totalsRowShown="0" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D92C2784-C2DF-42F2-92FF-5ECA29492552}" name="Table55" displayName="Table55" ref="A1:M47" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="A1:M47" xr:uid="{F37A7175-94D4-4B97-9E3D-C26D807513CC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M47">
     <sortCondition ref="A1:A47"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{F8EF9A01-DB78-40D8-ACA6-9E9991DB01BC}" name="point" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{B34F9971-7D7F-415E-A0AE-093A38839601}" name="1" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{8457E791-6252-4695-8B24-5D6CDA1FB838}" name="2" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{A1833406-50DB-44C9-B8FD-5712270D6356}" name="3" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{BBADBC52-1619-401D-B3EE-27B7181CA735}" name="4" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{76BE31E2-C0D4-4D4D-B9AF-13DBFAF7C16F}" name="5" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{56BE8376-A575-4C25-9980-B12C6B4DA29C}" name="6" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{99DF6C02-A4C1-4749-9B1F-469A4DAD5DAA}" name="7" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{C73AC5A7-89A9-4D6F-9B7D-54ABCDA24E67}" name="8" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{810617EF-C831-42BA-96C2-C33D0C75F295}" name="9" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{576DF02A-2A79-4121-A6A2-EEC7276A83F0}" name="10" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{9A27AD4C-A854-434F-A701-AE0FEF195B28}" name="11" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{A680175B-FEB2-4639-B162-7561C35C13E1}" name="12" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{F8EF9A01-DB78-40D8-ACA6-9E9991DB01BC}" name="point" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{B34F9971-7D7F-415E-A0AE-093A38839601}" name="1" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{8457E791-6252-4695-8B24-5D6CDA1FB838}" name="2" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{A1833406-50DB-44C9-B8FD-5712270D6356}" name="3" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{BBADBC52-1619-401D-B3EE-27B7181CA735}" name="4" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{76BE31E2-C0D4-4D4D-B9AF-13DBFAF7C16F}" name="5" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{56BE8376-A575-4C25-9980-B12C6B4DA29C}" name="6" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{99DF6C02-A4C1-4749-9B1F-469A4DAD5DAA}" name="7" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{C73AC5A7-89A9-4D6F-9B7D-54ABCDA24E67}" name="8" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{810617EF-C831-42BA-96C2-C33D0C75F295}" name="9" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{576DF02A-2A79-4121-A6A2-EEC7276A83F0}" name="10" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{9A27AD4C-A854-434F-A701-AE0FEF195B28}" name="11" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{A680175B-FEB2-4639-B162-7561C35C13E1}" name="12" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{17DC9B6A-A9BC-4362-AA79-4844ED9A950A}" name="Table8" displayName="Table8" ref="A1:M47" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{17DC9B6A-A9BC-4362-AA79-4844ED9A950A}" name="Table8" displayName="Table8" ref="A1:M47" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="A1:M47" xr:uid="{CA72C2EE-E127-4159-9060-601AA38B3F91}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{E909DEFE-2E68-4728-BA5C-A3DA9CD96C6B}" name="point" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{E909DEFE-2E68-4728-BA5C-A3DA9CD96C6B}" name="point" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{1704CCDD-6C9E-4CD9-BFA7-30EF8F066300}" name="1">
       <calculatedColumnFormula>ROUND(RAND()*Table5[[#This Row],[1]],0)</calculatedColumnFormula>
     </tableColumn>
@@ -1424,44 +1424,44 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{01ECB08F-0A28-4463-8077-C52DE9990EE8}" name="Table9" displayName="Table9" ref="A1:M47" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{01ECB08F-0A28-4463-8077-C52DE9990EE8}" name="Table9" displayName="Table9" ref="A1:M47" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:M47" xr:uid="{FAF30797-55D7-4F84-83EB-DF94712C7E07}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{E0D18F22-3D3A-4C98-A7A1-4E11AF64AEC9}" name="point" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{9680B5EE-50E8-4CAA-95A0-47088B0ACB13}" name="1" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{E0D18F22-3D3A-4C98-A7A1-4E11AF64AEC9}" name="point" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{9680B5EE-50E8-4CAA-95A0-47088B0ACB13}" name="1" dataDxfId="11">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1145F2F2-9015-4809-B8D4-CAC79B15A7D6}" name="2" dataDxfId="13">
+    <tableColumn id="3" xr3:uid="{1145F2F2-9015-4809-B8D4-CAC79B15A7D6}" name="2" dataDxfId="10">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8BA68AEC-5820-472C-BFCA-D11CD844E5B4}" name="3" dataDxfId="12">
+    <tableColumn id="4" xr3:uid="{8BA68AEC-5820-472C-BFCA-D11CD844E5B4}" name="3" dataDxfId="9">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{864A2956-4B78-4651-BDC9-3D2605311ECE}" name="4" dataDxfId="11">
+    <tableColumn id="5" xr3:uid="{864A2956-4B78-4651-BDC9-3D2605311ECE}" name="4" dataDxfId="8">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{ED7C1D30-6720-42E0-B259-98A3B1E49FE8}" name="5" dataDxfId="10">
+    <tableColumn id="6" xr3:uid="{ED7C1D30-6720-42E0-B259-98A3B1E49FE8}" name="5" dataDxfId="7">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{277C5507-1F1B-48B2-9E6C-B193A05858DE}" name="6" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{277C5507-1F1B-48B2-9E6C-B193A05858DE}" name="6" dataDxfId="6">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A9B95279-40B8-425E-9949-F17E698DE8FD}" name="7" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{A9B95279-40B8-425E-9949-F17E698DE8FD}" name="7" dataDxfId="5">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D5F2BBDA-BAA5-4D6E-9D85-FD5B8D7287B2}" name="8" dataDxfId="7">
+    <tableColumn id="9" xr3:uid="{D5F2BBDA-BAA5-4D6E-9D85-FD5B8D7287B2}" name="8" dataDxfId="4">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D11BB55A-305B-4628-B933-E6F9832F741A}" name="9" dataDxfId="6">
+    <tableColumn id="10" xr3:uid="{D11BB55A-305B-4628-B933-E6F9832F741A}" name="9" dataDxfId="3">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6D540C23-684B-4DB8-A790-E514DB02AA91}" name="10" dataDxfId="5">
+    <tableColumn id="11" xr3:uid="{6D540C23-684B-4DB8-A790-E514DB02AA91}" name="10" dataDxfId="2">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00747D62-1E1C-4B36-BB79-53BD2D83B42D}" name="11" dataDxfId="4">
+    <tableColumn id="12" xr3:uid="{00747D62-1E1C-4B36-BB79-53BD2D83B42D}" name="11" dataDxfId="1">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{B0C7967C-D44B-4451-BB2C-B6FFE541E871}" name="12" dataDxfId="3">
+    <tableColumn id="13" xr3:uid="{B0C7967C-D44B-4451-BB2C-B6FFE541E871}" name="12" dataDxfId="0">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11072,7 +11072,7 @@
   <dimension ref="A1:H972"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+      <selection activeCell="E321" sqref="E321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14552,7 +14552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
         <v>37</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
         <v>37</v>
       </c>
@@ -14614,7 +14614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
         <v>37</v>
       </c>
@@ -14645,7 +14645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="17" t="s">
         <v>37</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
         <v>37</v>
       </c>
@@ -14707,7 +14707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="17" t="s">
         <v>37</v>
       </c>
@@ -14738,7 +14738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
         <v>37</v>
       </c>
@@ -14769,7 +14769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="s">
         <v>37</v>
       </c>
@@ -14800,7 +14800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
         <v>37</v>
       </c>
@@ -14831,7 +14831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="36" t="s">
         <v>37</v>
       </c>
@@ -14862,7 +14862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="s">
         <v>37</v>
       </c>
@@ -14893,7 +14893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
         <v>37</v>
       </c>
@@ -20907,7 +20907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="15" t="s">
         <v>56</v>
       </c>
@@ -20938,7 +20938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="17" t="s">
         <v>56</v>
       </c>
@@ -20969,7 +20969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="15" t="s">
         <v>56</v>
       </c>
@@ -21000,7 +21000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="17" t="s">
         <v>56</v>
       </c>
@@ -21031,7 +21031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="15" t="s">
         <v>56</v>
       </c>
@@ -22829,7 +22829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="23" t="s">
         <v>37</v>
       </c>
@@ -24658,7 +24658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="21" t="s">
         <v>56</v>
       </c>
@@ -34237,7 +34237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="27" t="s">
         <v>37</v>
       </c>
@@ -34268,7 +34268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="27" t="s">
         <v>37</v>
       </c>
@@ -43209,7 +43209,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N50:AE61 A51:M62">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45176,7 +45176,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:M47">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45253,51 +45253,51 @@
       </c>
       <c r="B2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-121</v>
+        <v>-694</v>
       </c>
       <c r="C2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>72</v>
+        <v>278</v>
       </c>
       <c r="E2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="F2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1215</v>
+        <v>424</v>
       </c>
       <c r="G2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>178</v>
+        <v>289</v>
       </c>
       <c r="H2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>466</v>
+        <v>67</v>
       </c>
       <c r="I2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>454</v>
+        <v>718</v>
       </c>
       <c r="J2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>576</v>
+        <v>263</v>
       </c>
       <c r="K2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>238</v>
+        <v>4</v>
       </c>
       <c r="L2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="M2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1217</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -45306,23 +45306,23 @@
       </c>
       <c r="B3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-568</v>
+        <v>-1245</v>
       </c>
       <c r="C3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>26</v>
+        <v>302</v>
       </c>
       <c r="E3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>435</v>
+        <v>107</v>
       </c>
       <c r="F3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>920</v>
+        <v>887</v>
       </c>
       <c r="G3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
@@ -45330,27 +45330,27 @@
       </c>
       <c r="H3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="I3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>299</v>
+        <v>185</v>
       </c>
       <c r="J3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="K3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="L3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="M3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>512</v>
+        <v>749</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -45359,51 +45359,51 @@
       </c>
       <c r="B4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-4800</v>
+        <v>-3015</v>
       </c>
       <c r="C4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-57</v>
+        <v>-125</v>
       </c>
       <c r="D4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>540</v>
+        <v>865</v>
       </c>
       <c r="E4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>1710</v>
+        <v>49</v>
       </c>
       <c r="F4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>4245</v>
+        <v>2578</v>
       </c>
       <c r="G4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-5</v>
+        <v>-147</v>
       </c>
       <c r="H4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="I4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>251</v>
+        <v>1316</v>
       </c>
       <c r="J4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>250</v>
+        <v>485</v>
       </c>
       <c r="K4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>590</v>
+        <v>277</v>
       </c>
       <c r="L4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>877</v>
+        <v>757</v>
       </c>
       <c r="M4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>2442</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -45412,51 +45412,51 @@
       </c>
       <c r="B5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1313</v>
+        <v>-1450</v>
       </c>
       <c r="C5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>61</v>
+        <v>226</v>
       </c>
       <c r="F5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2099</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>291</v>
+        <v>365</v>
       </c>
       <c r="I5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>430</v>
+        <v>322</v>
       </c>
       <c r="J5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>564</v>
+        <v>356</v>
       </c>
       <c r="K5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>543</v>
+        <v>603</v>
       </c>
       <c r="L5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>673</v>
+        <v>807</v>
       </c>
       <c r="M5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>742</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -45465,51 +45465,51 @@
       </c>
       <c r="B6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-152</v>
+        <v>-1876</v>
       </c>
       <c r="C6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>443</v>
+        <v>269</v>
       </c>
       <c r="D6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>3</v>
+        <v>548</v>
       </c>
       <c r="E6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>529</v>
+        <v>329</v>
       </c>
       <c r="F6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1979</v>
+        <v>2775</v>
       </c>
       <c r="G6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>7</v>
+        <v>394</v>
       </c>
       <c r="H6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>216</v>
+        <v>106</v>
       </c>
       <c r="I6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>111</v>
+        <v>394</v>
       </c>
       <c r="J6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>170</v>
+        <v>487</v>
       </c>
       <c r="K6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>735</v>
+        <v>323</v>
       </c>
       <c r="L6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="M6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1146</v>
+        <v>823</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -45518,51 +45518,51 @@
       </c>
       <c r="B7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-4642</v>
+        <v>-4188</v>
       </c>
       <c r="C7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="D7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>158</v>
+        <v>547</v>
       </c>
       <c r="E7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="F7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>3049</v>
+        <v>6213</v>
       </c>
       <c r="G7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-361</v>
+        <v>-734</v>
       </c>
       <c r="H7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-114</v>
+        <v>-16</v>
       </c>
       <c r="I7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-106</v>
+        <v>-44</v>
       </c>
       <c r="J7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="K7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="L7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>324</v>
+        <v>592</v>
       </c>
       <c r="M7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1610</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -45571,51 +45571,51 @@
       </c>
       <c r="B8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-2743</v>
+        <v>-70</v>
       </c>
       <c r="C8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="D8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="E8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="F8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2298</v>
+        <v>6525</v>
       </c>
       <c r="G8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-183</v>
+        <v>-578</v>
       </c>
       <c r="H8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-83</v>
+        <v>-98</v>
       </c>
       <c r="I8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>1410</v>
+        <v>775</v>
       </c>
       <c r="J8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>718</v>
+        <v>759</v>
       </c>
       <c r="K8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>187</v>
+        <v>535</v>
       </c>
       <c r="L8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>401</v>
+        <v>753</v>
       </c>
       <c r="M8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>842</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -45624,51 +45624,51 @@
       </c>
       <c r="B9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-782</v>
+        <v>-1075</v>
       </c>
       <c r="C9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>293</v>
+        <v>365</v>
       </c>
       <c r="E9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1343</v>
+        <v>1364</v>
       </c>
       <c r="G9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="H9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="I9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>171</v>
+        <v>316</v>
       </c>
       <c r="J9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="K9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>271</v>
+        <v>115</v>
       </c>
       <c r="L9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>469</v>
+        <v>30</v>
       </c>
       <c r="M9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>731</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -45677,51 +45677,51 @@
       </c>
       <c r="B10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-404</v>
+        <v>-138</v>
       </c>
       <c r="C10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>333</v>
+        <v>522</v>
       </c>
       <c r="D10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="E10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>929</v>
+        <v>727</v>
       </c>
       <c r="F10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>557</v>
+        <v>2065</v>
       </c>
       <c r="G10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="H10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="I10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="J10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>229</v>
+        <v>282</v>
       </c>
       <c r="K10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>95</v>
+        <v>468</v>
       </c>
       <c r="L10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>494</v>
+        <v>606</v>
       </c>
       <c r="M10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>867</v>
+        <v>731</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -45730,51 +45730,51 @@
       </c>
       <c r="B11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1898</v>
+        <v>-893</v>
       </c>
       <c r="C11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>17</v>
+        <v>395</v>
       </c>
       <c r="D11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>407</v>
+        <v>155</v>
       </c>
       <c r="E11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>1367</v>
+        <v>1595</v>
       </c>
       <c r="F11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>271</v>
+        <v>925</v>
       </c>
       <c r="G11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-113</v>
+        <v>-148</v>
       </c>
       <c r="H11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="I11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="J11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>265</v>
+        <v>711</v>
       </c>
       <c r="K11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>757</v>
+        <v>814</v>
       </c>
       <c r="L11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>1125</v>
+        <v>639</v>
       </c>
       <c r="M11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>693</v>
+        <v>538</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -45783,51 +45783,51 @@
       </c>
       <c r="B12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-5668</v>
+        <v>-7291</v>
       </c>
       <c r="C12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>666</v>
+        <v>56</v>
       </c>
       <c r="D12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>244</v>
+        <v>818</v>
       </c>
       <c r="E12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>714</v>
+        <v>1730</v>
       </c>
       <c r="F12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2965</v>
+        <v>1401</v>
       </c>
       <c r="G12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-135</v>
+        <v>-453</v>
       </c>
       <c r="H12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>99</v>
+        <v>424</v>
       </c>
       <c r="I12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>434</v>
+        <v>589</v>
       </c>
       <c r="J12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>341</v>
+        <v>83</v>
       </c>
       <c r="K12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>1352</v>
+        <v>691</v>
       </c>
       <c r="L12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>990</v>
+        <v>935</v>
       </c>
       <c r="M12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>437</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -45836,51 +45836,51 @@
       </c>
       <c r="B13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-7306</v>
+        <v>-3863</v>
       </c>
       <c r="C13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>477</v>
+        <v>435</v>
       </c>
       <c r="D13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>82</v>
+        <v>409</v>
       </c>
       <c r="E13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>38</v>
+        <v>370</v>
       </c>
       <c r="F13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1306</v>
+        <v>961</v>
       </c>
       <c r="G13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="I13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>410</v>
+        <v>1091</v>
       </c>
       <c r="J13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="K13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>270</v>
+        <v>528</v>
       </c>
       <c r="L13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>157</v>
+        <v>719</v>
       </c>
       <c r="M13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1715</v>
+        <v>740</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -45889,51 +45889,51 @@
       </c>
       <c r="B14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-4680</v>
+        <v>-2333</v>
       </c>
       <c r="C14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="D14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>311</v>
+        <v>459</v>
       </c>
       <c r="E14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="F14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2806</v>
+        <v>2747</v>
       </c>
       <c r="G14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-852</v>
+        <v>-151</v>
       </c>
       <c r="H14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>225</v>
+        <v>345</v>
       </c>
       <c r="I14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-57</v>
+        <v>-99</v>
       </c>
       <c r="J14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>-70</v>
+        <v>-36</v>
       </c>
       <c r="K14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>218</v>
+        <v>593</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -45942,51 +45942,51 @@
       </c>
       <c r="B15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-89</v>
+        <v>-319</v>
       </c>
       <c r="C15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="F15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>663</v>
+        <v>742</v>
       </c>
       <c r="G15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="H15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="I15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>53</v>
+        <v>211</v>
       </c>
       <c r="J15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="K15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="L15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="M15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -46048,51 +46048,51 @@
       </c>
       <c r="B17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-9136</v>
+        <v>-4057</v>
       </c>
       <c r="C17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>394</v>
+        <v>1076</v>
       </c>
       <c r="D17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>517</v>
+        <v>2488</v>
       </c>
       <c r="E17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>3458</v>
+        <v>1983</v>
       </c>
       <c r="F17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>4398</v>
+        <v>8291</v>
       </c>
       <c r="G17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>362</v>
+        <v>152</v>
       </c>
       <c r="H17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-3507</v>
+        <v>-2224</v>
       </c>
       <c r="I17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>229</v>
+        <v>412</v>
       </c>
       <c r="J17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="K17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>843</v>
+        <v>18</v>
       </c>
       <c r="M17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>436</v>
+        <v>6282</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -46101,51 +46101,51 @@
       </c>
       <c r="B18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-55</v>
+        <v>-1419</v>
       </c>
       <c r="C18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="D18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="E18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>188</v>
+        <v>313</v>
       </c>
       <c r="F18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1166</v>
+        <v>2334</v>
       </c>
       <c r="G18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="H18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-106</v>
+        <v>-269</v>
       </c>
       <c r="I18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-470</v>
+        <v>-1</v>
       </c>
       <c r="J18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="K18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>-88</v>
+        <v>-214</v>
       </c>
       <c r="L18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>-36</v>
+        <v>-50</v>
       </c>
       <c r="M18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -46154,51 +46154,51 @@
       </c>
       <c r="B19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-4821</v>
+        <v>-4530</v>
       </c>
       <c r="C19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="D19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>835</v>
+        <v>56</v>
       </c>
       <c r="E19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>567</v>
+        <v>807</v>
       </c>
       <c r="F19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>94</v>
+        <v>7017</v>
       </c>
       <c r="G19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-40</v>
+        <v>-1338</v>
       </c>
       <c r="H19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-329</v>
+        <v>-557</v>
       </c>
       <c r="I19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-5</v>
+        <v>-131</v>
       </c>
       <c r="J19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>-7</v>
+        <v>-25</v>
       </c>
       <c r="K19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="L19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>200</v>
+        <v>378</v>
       </c>
       <c r="M19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>665</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -46207,51 +46207,51 @@
       </c>
       <c r="B20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1287</v>
+        <v>-1016</v>
       </c>
       <c r="C20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>382</v>
+        <v>756</v>
       </c>
       <c r="E20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>537</v>
+        <v>577</v>
       </c>
       <c r="F20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2113</v>
+        <v>2179</v>
       </c>
       <c r="G20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-405</v>
+        <v>-118</v>
       </c>
       <c r="H20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>174</v>
+        <v>335</v>
       </c>
       <c r="I20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>842</v>
+        <v>615</v>
       </c>
       <c r="J20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>303</v>
+        <v>232</v>
       </c>
       <c r="K20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>183</v>
+        <v>435</v>
       </c>
       <c r="L20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>357</v>
+        <v>61</v>
       </c>
       <c r="M20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>665</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -46260,51 +46260,51 @@
       </c>
       <c r="B21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-100</v>
+        <v>-243</v>
       </c>
       <c r="C21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-178</v>
+        <v>-65</v>
       </c>
       <c r="D21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="E21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>184</v>
+        <v>284</v>
       </c>
       <c r="F21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>3987</v>
+        <v>184</v>
       </c>
       <c r="G21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-598</v>
+        <v>-300</v>
       </c>
       <c r="H21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-775</v>
+        <v>-1227</v>
       </c>
       <c r="I21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-67</v>
+        <v>-72</v>
       </c>
       <c r="J21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>-250</v>
+        <v>-242</v>
       </c>
       <c r="K21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>-392</v>
+        <v>-101</v>
       </c>
       <c r="L21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>-8</v>
+        <v>-88</v>
       </c>
       <c r="M21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>85</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -46313,51 +46313,51 @@
       </c>
       <c r="B22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-963</v>
+        <v>-3873</v>
       </c>
       <c r="C22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="D22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>238</v>
+        <v>475</v>
       </c>
       <c r="F22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="G22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="I22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>134</v>
+        <v>653</v>
       </c>
       <c r="J22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>460</v>
+        <v>136</v>
       </c>
       <c r="K22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>786</v>
+        <v>479</v>
       </c>
       <c r="L22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>404</v>
+        <v>828</v>
       </c>
       <c r="M22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>490</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -46366,51 +46366,51 @@
       </c>
       <c r="B23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1929</v>
+        <v>-152</v>
       </c>
       <c r="C23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>470</v>
+        <v>187</v>
       </c>
       <c r="D23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>761</v>
+        <v>95</v>
       </c>
       <c r="E23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>440</v>
+        <v>1509</v>
       </c>
       <c r="F23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>7500</v>
+        <v>4947</v>
       </c>
       <c r="G23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-1293</v>
+        <v>-429</v>
       </c>
       <c r="H23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-93</v>
+        <v>-40</v>
       </c>
       <c r="I23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>114</v>
+        <v>271</v>
       </c>
       <c r="J23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>625</v>
+        <v>429</v>
       </c>
       <c r="K23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>1026</v>
+        <v>1002</v>
       </c>
       <c r="L23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>161</v>
+        <v>1175</v>
       </c>
       <c r="M23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>2188</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -46419,51 +46419,51 @@
       </c>
       <c r="B24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-6352</v>
+        <v>-9287</v>
       </c>
       <c r="C24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="D24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>793</v>
+        <v>1547</v>
       </c>
       <c r="E24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>4327</v>
+        <v>2636</v>
       </c>
       <c r="F24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2875</v>
+        <v>10884</v>
       </c>
       <c r="G24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-2943</v>
+        <v>-2245</v>
       </c>
       <c r="H24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>26</v>
+        <v>280</v>
       </c>
       <c r="I24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>349</v>
+        <v>44</v>
       </c>
       <c r="J24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>10</v>
+        <v>819</v>
       </c>
       <c r="K24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>161</v>
+        <v>632</v>
       </c>
       <c r="L24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="M24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>2430</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -46472,51 +46472,51 @@
       </c>
       <c r="B25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-3179</v>
+        <v>-2492</v>
       </c>
       <c r="C25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>75</v>
+        <v>872</v>
       </c>
       <c r="E25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>93</v>
+        <v>1376</v>
       </c>
       <c r="F25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1095</v>
+        <v>701</v>
       </c>
       <c r="G25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-504</v>
+        <v>-1373</v>
       </c>
       <c r="H25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-1583</v>
+        <v>-210</v>
       </c>
       <c r="I25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-62</v>
+        <v>-170</v>
       </c>
       <c r="J25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>-373</v>
+        <v>-254</v>
       </c>
       <c r="K25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>-178</v>
+        <v>-79</v>
       </c>
       <c r="L25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>457</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -46525,51 +46525,51 @@
       </c>
       <c r="B26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1157</v>
+        <v>-922</v>
       </c>
       <c r="C26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-33</v>
+        <v>-88</v>
       </c>
       <c r="D26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>213</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>705</v>
+        <v>39</v>
       </c>
       <c r="F26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>716</v>
+        <v>1924</v>
       </c>
       <c r="G26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-176</v>
+        <v>-112</v>
       </c>
       <c r="I26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-58</v>
+        <v>-27</v>
       </c>
       <c r="J26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="K26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>517</v>
+        <v>348</v>
       </c>
       <c r="L26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>702</v>
+        <v>482</v>
       </c>
       <c r="M26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1004</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -46578,7 +46578,7 @@
       </c>
       <c r="B27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-2274</v>
+        <v>-485</v>
       </c>
       <c r="C27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
@@ -46586,43 +46586,43 @@
       </c>
       <c r="D27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>206</v>
+        <v>283</v>
       </c>
       <c r="E27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>1898</v>
+        <v>471</v>
       </c>
       <c r="F27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2889</v>
+        <v>2342</v>
       </c>
       <c r="G27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-400</v>
+        <v>-518</v>
       </c>
       <c r="H27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-208</v>
+        <v>-126</v>
       </c>
       <c r="I27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-56</v>
+        <v>-34</v>
       </c>
       <c r="J27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="L27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="M27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>825</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -46631,51 +46631,51 @@
       </c>
       <c r="B28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-10898</v>
+        <v>-8809</v>
       </c>
       <c r="C28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>1387</v>
+        <v>1347</v>
       </c>
       <c r="D28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>3625</v>
+        <v>3965</v>
       </c>
       <c r="E28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>2910</v>
+        <v>3148</v>
       </c>
       <c r="F28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2364</v>
+        <v>7915</v>
       </c>
       <c r="G28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-3186</v>
+        <v>-1627</v>
       </c>
       <c r="H28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-1882</v>
+        <v>-1065</v>
       </c>
       <c r="I28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>1235</v>
+        <v>1656</v>
       </c>
       <c r="J28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="K28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>771</v>
+        <v>501</v>
       </c>
       <c r="L28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>1295</v>
+        <v>18</v>
       </c>
       <c r="M28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1572</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -46684,51 +46684,51 @@
       </c>
       <c r="B29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-342</v>
+        <v>-3593</v>
       </c>
       <c r="C29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>10</v>
+        <v>306</v>
       </c>
       <c r="E29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>1848</v>
+        <v>982</v>
       </c>
       <c r="F29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>4273</v>
+        <v>307</v>
       </c>
       <c r="G29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-732</v>
+        <v>-476</v>
       </c>
       <c r="H29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>112</v>
+        <v>301</v>
       </c>
       <c r="I29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>545</v>
+        <v>12</v>
       </c>
       <c r="J29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>354</v>
+        <v>508</v>
       </c>
       <c r="K29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>80</v>
+        <v>618</v>
       </c>
       <c r="L29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>283</v>
+        <v>168</v>
       </c>
       <c r="M29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>439</v>
+        <v>547</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -46737,51 +46737,51 @@
       </c>
       <c r="B30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1011</v>
+        <v>-90</v>
       </c>
       <c r="C30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>174</v>
+        <v>275</v>
       </c>
       <c r="D30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="E30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="F30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>192</v>
+        <v>286</v>
       </c>
       <c r="G30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>262</v>
+        <v>128</v>
       </c>
       <c r="H30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>146</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="J30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>577</v>
+        <v>598</v>
       </c>
       <c r="K30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>431</v>
+        <v>771</v>
       </c>
       <c r="L30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>377</v>
+        <v>910</v>
       </c>
       <c r="M30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1590</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -46790,51 +46790,51 @@
       </c>
       <c r="B31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1683</v>
+        <v>-1209</v>
       </c>
       <c r="C31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="E31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>379</v>
+        <v>242</v>
       </c>
       <c r="F31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2415</v>
+        <v>1858</v>
       </c>
       <c r="G31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-70</v>
+        <v>-403</v>
       </c>
       <c r="H31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>389</v>
+        <v>111</v>
       </c>
       <c r="J31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>264</v>
+        <v>210</v>
       </c>
       <c r="K31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>227</v>
+        <v>402</v>
       </c>
       <c r="L31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>85</v>
+        <v>410</v>
       </c>
       <c r="M31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>581</v>
+        <v>743</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -46843,51 +46843,51 @@
       </c>
       <c r="B32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-3299</v>
+        <v>-5111</v>
       </c>
       <c r="C32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>836</v>
+        <v>300</v>
       </c>
       <c r="D32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>2331</v>
+        <v>2283</v>
       </c>
       <c r="E32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>640</v>
+        <v>105</v>
       </c>
       <c r="F32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>7357</v>
+        <v>1266</v>
       </c>
       <c r="G32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>450</v>
+        <v>651</v>
       </c>
       <c r="I32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>370</v>
+        <v>624</v>
       </c>
       <c r="J32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>398</v>
+        <v>559</v>
       </c>
       <c r="K32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>2458</v>
+        <v>2303</v>
       </c>
       <c r="L32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>1980</v>
+        <v>1577</v>
       </c>
       <c r="M32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>2490</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -46896,51 +46896,51 @@
       </c>
       <c r="B33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-941</v>
+        <v>-1598</v>
       </c>
       <c r="C33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-24</v>
+        <v>-34</v>
       </c>
       <c r="D33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="E33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>897</v>
+        <v>425</v>
       </c>
       <c r="F33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2406</v>
+        <v>3648</v>
       </c>
       <c r="G33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-110</v>
+        <v>-85</v>
       </c>
       <c r="H33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="I33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="J33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>348</v>
+        <v>132</v>
       </c>
       <c r="K33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>72</v>
+        <v>283</v>
       </c>
       <c r="L33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>327</v>
+        <v>95</v>
       </c>
       <c r="M33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>169</v>
+        <v>731</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -46949,51 +46949,51 @@
       </c>
       <c r="B34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-6988</v>
+        <v>-6435</v>
       </c>
       <c r="C34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="D34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>364</v>
+        <v>255</v>
       </c>
       <c r="E34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>324</v>
+        <v>110</v>
       </c>
       <c r="F34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>332</v>
+        <v>1322</v>
       </c>
       <c r="G34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>117</v>
+        <v>273</v>
       </c>
       <c r="I34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="J34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>183</v>
+        <v>328</v>
       </c>
       <c r="K34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>347</v>
+        <v>139</v>
       </c>
       <c r="L34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>364</v>
+        <v>231</v>
       </c>
       <c r="M34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>163</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -47002,51 +47002,51 @@
       </c>
       <c r="B35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1883</v>
+        <v>-340</v>
       </c>
       <c r="C35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="E35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>444</v>
+        <v>789</v>
       </c>
       <c r="F35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2187</v>
+        <v>2832</v>
       </c>
       <c r="G35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-280</v>
+        <v>-22</v>
       </c>
       <c r="H35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="I35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>670</v>
+        <v>685</v>
       </c>
       <c r="J35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>273</v>
+        <v>464</v>
       </c>
       <c r="K35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="L35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>714</v>
+        <v>331</v>
       </c>
       <c r="M35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>32</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -47055,51 +47055,51 @@
       </c>
       <c r="B36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1169</v>
+        <v>-299</v>
       </c>
       <c r="C36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="E36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="F36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1216</v>
+        <v>808</v>
       </c>
       <c r="G36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="H36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="I36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="K36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="M36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -47108,51 +47108,51 @@
       </c>
       <c r="B37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-304</v>
+        <v>-26</v>
       </c>
       <c r="C37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="D37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>333</v>
+        <v>237</v>
       </c>
       <c r="F37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>542</v>
+        <v>450</v>
       </c>
       <c r="G37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="H37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-158</v>
+        <v>-161</v>
       </c>
       <c r="I37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="J37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="K37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>189</v>
+        <v>57</v>
       </c>
       <c r="L37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="M37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>179</v>
+        <v>493</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -47161,51 +47161,51 @@
       </c>
       <c r="B38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-7650</v>
+        <v>-7760</v>
       </c>
       <c r="C38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>523</v>
+        <v>400</v>
       </c>
       <c r="E38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="F38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>214</v>
+        <v>5655</v>
       </c>
       <c r="G38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-789</v>
+        <v>-670</v>
       </c>
       <c r="H38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="I38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>506</v>
+        <v>374</v>
       </c>
       <c r="J38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="K38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="L38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>215</v>
+        <v>761</v>
       </c>
       <c r="M38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>2307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -47214,51 +47214,51 @@
       </c>
       <c r="B39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1500</v>
+        <v>-34</v>
       </c>
       <c r="C39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>180</v>
+        <v>405</v>
       </c>
       <c r="F39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1821</v>
+        <v>1021</v>
       </c>
       <c r="G39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-5</v>
+        <v>-19</v>
       </c>
       <c r="H39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-17</v>
+        <v>-12</v>
       </c>
       <c r="I39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="J39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="K39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="L39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>742</v>
+        <v>604</v>
       </c>
       <c r="M39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -47267,51 +47267,51 @@
       </c>
       <c r="B40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1190</v>
+        <v>-853</v>
       </c>
       <c r="C40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>229</v>
+        <v>84</v>
       </c>
       <c r="D40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="E40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>332</v>
+        <v>53</v>
       </c>
       <c r="F40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>71</v>
+        <v>1160</v>
       </c>
       <c r="G40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="H40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="I40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="J40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>382</v>
+        <v>90</v>
       </c>
       <c r="K40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>151</v>
+        <v>337</v>
       </c>
       <c r="L40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>396</v>
+        <v>244</v>
       </c>
       <c r="M40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>601</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -47320,51 +47320,51 @@
       </c>
       <c r="B41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1344</v>
+        <v>-1018</v>
       </c>
       <c r="C41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>589</v>
+        <v>257</v>
       </c>
       <c r="G41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="J41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="K41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="L41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="M41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>138</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -47373,51 +47373,51 @@
       </c>
       <c r="B42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1791</v>
+        <v>-1035</v>
       </c>
       <c r="C42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-59</v>
+        <v>-165</v>
       </c>
       <c r="D42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>502</v>
+        <v>428</v>
       </c>
       <c r="G42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="H42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>670</v>
+        <v>337</v>
       </c>
       <c r="I42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="J42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>111</v>
+        <v>371</v>
       </c>
       <c r="K42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>506</v>
+        <v>115</v>
       </c>
       <c r="L42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>579</v>
+        <v>446</v>
       </c>
       <c r="M42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1862</v>
+        <v>835</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -47426,23 +47426,23 @@
       </c>
       <c r="B43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-3289</v>
+        <v>-1408</v>
       </c>
       <c r="C43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="D43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="E43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="F43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1056</v>
+        <v>593</v>
       </c>
       <c r="G43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
@@ -47450,27 +47450,27 @@
       </c>
       <c r="H43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="J43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>138</v>
+        <v>386</v>
       </c>
       <c r="K43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>282</v>
+        <v>169</v>
       </c>
       <c r="L43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>769</v>
+        <v>348</v>
       </c>
       <c r="M43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>215</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -47479,51 +47479,51 @@
       </c>
       <c r="B44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-879</v>
+        <v>-780</v>
       </c>
       <c r="C44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="D44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="E44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>131</v>
+        <v>285</v>
       </c>
       <c r="F44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>729</v>
+        <v>613</v>
       </c>
       <c r="G44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="H44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="I44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="J44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="K44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>237</v>
+        <v>136</v>
       </c>
       <c r="L44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="M44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>575</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -47532,51 +47532,51 @@
       </c>
       <c r="B45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-197</v>
+        <v>-1057</v>
       </c>
       <c r="C45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-93</v>
+        <v>-23</v>
       </c>
       <c r="D45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>138</v>
+        <v>250</v>
       </c>
       <c r="F45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>243</v>
+        <v>1094</v>
       </c>
       <c r="G45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>397</v>
+        <v>520</v>
       </c>
       <c r="H45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>182</v>
+        <v>46</v>
       </c>
       <c r="I45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="J45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="K45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="L45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>382</v>
+        <v>537</v>
       </c>
       <c r="M45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>972</v>
+        <v>545</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -47585,51 +47585,51 @@
       </c>
       <c r="B46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-287</v>
+        <v>-389</v>
       </c>
       <c r="C46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-24</v>
+        <v>-3</v>
       </c>
       <c r="D46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="F46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>355</v>
+        <v>248</v>
       </c>
       <c r="G46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="H46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="I46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="K46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="L46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>204</v>
+        <v>47</v>
       </c>
       <c r="M46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>300</v>
+        <v>788</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -47638,56 +47638,56 @@
       </c>
       <c r="B47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-2367</v>
+        <v>-1507</v>
       </c>
       <c r="C47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>502</v>
+        <v>549</v>
       </c>
       <c r="D47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="E47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>198</v>
+        <v>1162</v>
       </c>
       <c r="F47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1950</v>
+        <v>2646</v>
       </c>
       <c r="G47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="H47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>27</v>
+        <v>226</v>
       </c>
       <c r="I47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>438</v>
+        <v>77</v>
       </c>
       <c r="J47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>463</v>
+        <v>730</v>
       </c>
       <c r="K47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="L47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>91</v>
+        <v>452</v>
       </c>
       <c r="M47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>3004</v>
+        <v>1089</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A51:A62">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47769,51 +47769,51 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>576</v>
+        <v>508</v>
       </c>
       <c r="C2" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>1215</v>
+        <v>8</v>
       </c>
       <c r="D2" cm="1">
         <f t="array" aca="1" ref="D2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>466</v>
+        <v>278</v>
       </c>
       <c r="E2" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>178</v>
+        <v>263</v>
       </c>
       <c r="F2" cm="1">
         <f t="array" aca="1" ref="F2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="G2" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="H2" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>1217</v>
+        <v>424</v>
       </c>
       <c r="I2" cm="1">
         <f t="array" aca="1" ref="I2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>536</v>
+        <v>718</v>
       </c>
       <c r="J2" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="K2" cm="1">
         <f t="array" aca="1" ref="K2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>31</v>
+        <v>-694</v>
       </c>
       <c r="L2" cm="1">
         <f t="array" aca="1" ref="L2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-121</v>
+        <v>5</v>
       </c>
       <c r="M2" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>454</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -47822,51 +47822,51 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="C3" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>920</v>
+        <v>7</v>
       </c>
       <c r="D3" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>187</v>
+        <v>302</v>
       </c>
       <c r="E3" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="F3" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>19</v>
+        <v>259</v>
       </c>
       <c r="H3" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>512</v>
+        <v>887</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>435</v>
+        <v>185</v>
       </c>
       <c r="J3" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>185</v>
+        <v>9</v>
       </c>
       <c r="K3" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>137</v>
+        <v>-1245</v>
       </c>
       <c r="L3" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-568</v>
+        <v>39</v>
       </c>
       <c r="M3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>299</v>
+        <v>749</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -47875,51 +47875,51 @@
       </c>
       <c r="B4" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>250</v>
+        <v>49</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>4245</v>
+        <v>-125</v>
       </c>
       <c r="D4" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>181</v>
+        <v>865</v>
       </c>
       <c r="E4" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-5</v>
+        <v>485</v>
       </c>
       <c r="F4" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>540</v>
+        <v>277</v>
       </c>
       <c r="G4" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>-57</v>
+        <v>76</v>
       </c>
       <c r="H4" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>2442</v>
+        <v>2578</v>
       </c>
       <c r="I4" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>1710</v>
+        <v>1316</v>
       </c>
       <c r="J4" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>590</v>
+        <v>-147</v>
       </c>
       <c r="K4" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>877</v>
+        <v>-3015</v>
       </c>
       <c r="L4" cm="1">
         <f t="array" aca="1" ref="L4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-4800</v>
+        <v>757</v>
       </c>
       <c r="M4" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>251</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -47928,51 +47928,51 @@
       </c>
       <c r="B5" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>564</v>
+        <v>226</v>
       </c>
       <c r="C5" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>2099</v>
+        <v>2</v>
       </c>
       <c r="D5" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>291</v>
+        <v>190</v>
       </c>
       <c r="E5" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>22</v>
+        <v>356</v>
       </c>
       <c r="F5" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>38</v>
+        <v>603</v>
       </c>
       <c r="G5" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="H5" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>742</v>
+        <v>1</v>
       </c>
       <c r="I5" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>61</v>
+        <v>322</v>
       </c>
       <c r="J5" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>543</v>
+        <v>9</v>
       </c>
       <c r="K5" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>673</v>
+        <v>-1450</v>
       </c>
       <c r="L5" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-1313</v>
+        <v>807</v>
       </c>
       <c r="M5" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>430</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -47981,51 +47981,51 @@
       </c>
       <c r="B6" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>170</v>
+        <v>329</v>
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>1979</v>
+        <v>269</v>
       </c>
       <c r="D6" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>216</v>
+        <v>548</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>7</v>
+        <v>487</v>
       </c>
       <c r="F6" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>3</v>
+        <v>323</v>
       </c>
       <c r="G6" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>443</v>
+        <v>106</v>
       </c>
       <c r="H6" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>1146</v>
+        <v>2775</v>
       </c>
       <c r="I6" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>529</v>
+        <v>394</v>
       </c>
       <c r="J6" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>735</v>
+        <v>394</v>
       </c>
       <c r="K6" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>457</v>
+        <v>-1876</v>
       </c>
       <c r="L6" cm="1">
         <f t="array" aca="1" ref="L6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-152</v>
+        <v>417</v>
       </c>
       <c r="M6" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>111</v>
+        <v>823</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -48034,51 +48034,51 @@
       </c>
       <c r="B7" cm="1">
         <f t="array" aca="1" ref="B7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>27</v>
+        <v>302</v>
       </c>
       <c r="C7" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>3049</v>
+        <v>208</v>
       </c>
       <c r="D7" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-114</v>
+        <v>547</v>
       </c>
       <c r="E7" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-361</v>
+        <v>89</v>
       </c>
       <c r="F7" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="G7" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>237</v>
+        <v>-16</v>
       </c>
       <c r="H7" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>1610</v>
+        <v>6213</v>
       </c>
       <c r="I7" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>229</v>
+        <v>-44</v>
       </c>
       <c r="J7" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>18</v>
+        <v>-734</v>
       </c>
       <c r="K7" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>324</v>
+        <v>-4188</v>
       </c>
       <c r="L7" cm="1">
         <f t="array" aca="1" ref="L7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-4642</v>
+        <v>592</v>
       </c>
       <c r="M7" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>-106</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -48087,51 +48087,51 @@
       </c>
       <c r="B8" cm="1">
         <f t="array" aca="1" ref="B8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>718</v>
+        <v>301</v>
       </c>
       <c r="C8" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>2298</v>
+        <v>357</v>
       </c>
       <c r="D8" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-83</v>
+        <v>994</v>
       </c>
       <c r="E8" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-183</v>
+        <v>759</v>
       </c>
       <c r="F8" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>991</v>
+        <v>535</v>
       </c>
       <c r="G8" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>328</v>
+        <v>-98</v>
       </c>
       <c r="H8" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>842</v>
+        <v>6525</v>
       </c>
       <c r="I8" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>328</v>
+        <v>775</v>
       </c>
       <c r="J8" cm="1">
         <f t="array" aca="1" ref="J8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>187</v>
+        <v>-578</v>
       </c>
       <c r="K8" cm="1">
         <f t="array" aca="1" ref="K8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>401</v>
+        <v>-70</v>
       </c>
       <c r="L8" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-2743</v>
+        <v>753</v>
       </c>
       <c r="M8" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>1410</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -48140,51 +48140,51 @@
       </c>
       <c r="B9" cm="1">
         <f t="array" aca="1" ref="B9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>244</v>
+        <v>55</v>
       </c>
       <c r="C9" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>1343</v>
+        <v>27</v>
       </c>
       <c r="D9" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>189</v>
+        <v>365</v>
       </c>
       <c r="E9" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="F9" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>293</v>
+        <v>115</v>
       </c>
       <c r="G9" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>48</v>
+        <v>264</v>
       </c>
       <c r="H9" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>731</v>
+        <v>1364</v>
       </c>
       <c r="I9" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>34</v>
+        <v>316</v>
       </c>
       <c r="J9" cm="1">
         <f t="array" aca="1" ref="J9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="K9" cm="1">
         <f t="array" aca="1" ref="K9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>469</v>
+        <v>-1075</v>
       </c>
       <c r="L9" cm="1">
         <f t="array" aca="1" ref="L9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-782</v>
+        <v>30</v>
       </c>
       <c r="M9" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>171</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -48193,51 +48193,51 @@
       </c>
       <c r="B10" cm="1">
         <f t="array" aca="1" ref="B10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>229</v>
+        <v>727</v>
       </c>
       <c r="C10" cm="1">
         <f t="array" aca="1" ref="C10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>557</v>
+        <v>522</v>
       </c>
       <c r="D10" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="E10" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-7</v>
+        <v>282</v>
       </c>
       <c r="F10" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>112</v>
+        <v>468</v>
       </c>
       <c r="G10" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>333</v>
+        <v>249</v>
       </c>
       <c r="H10" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>867</v>
+        <v>2065</v>
       </c>
       <c r="I10" cm="1">
         <f t="array" aca="1" ref="I10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>929</v>
+        <v>136</v>
       </c>
       <c r="J10" cm="1">
         <f t="array" aca="1" ref="J10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>95</v>
+        <v>-1</v>
       </c>
       <c r="K10" cm="1">
         <f t="array" aca="1" ref="K10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>494</v>
+        <v>-138</v>
       </c>
       <c r="L10" cm="1">
         <f t="array" aca="1" ref="L10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-404</v>
+        <v>606</v>
       </c>
       <c r="M10" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>198</v>
+        <v>731</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -48246,51 +48246,51 @@
       </c>
       <c r="B11" cm="1">
         <f t="array" aca="1" ref="B11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>265</v>
+        <v>1595</v>
       </c>
       <c r="C11" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>271</v>
+        <v>395</v>
       </c>
       <c r="D11" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>345</v>
+        <v>155</v>
       </c>
       <c r="E11" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-113</v>
+        <v>711</v>
       </c>
       <c r="F11" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>407</v>
+        <v>814</v>
       </c>
       <c r="G11" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>17</v>
+        <v>382</v>
       </c>
       <c r="H11" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>693</v>
+        <v>925</v>
       </c>
       <c r="I11" cm="1">
         <f t="array" aca="1" ref="I11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>1367</v>
+        <v>96</v>
       </c>
       <c r="J11" cm="1">
         <f t="array" aca="1" ref="J11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>757</v>
+        <v>-148</v>
       </c>
       <c r="K11" cm="1">
         <f t="array" aca="1" ref="K11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>1125</v>
+        <v>-893</v>
       </c>
       <c r="L11" cm="1">
         <f t="array" aca="1" ref="L11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-1898</v>
+        <v>639</v>
       </c>
       <c r="M11" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>165</v>
+        <v>538</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -48299,51 +48299,51 @@
       </c>
       <c r="B12" cm="1">
         <f t="array" aca="1" ref="B12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>341</v>
+        <v>1730</v>
       </c>
       <c r="C12" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>2965</v>
+        <v>56</v>
       </c>
       <c r="D12" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>99</v>
+        <v>818</v>
       </c>
       <c r="E12" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-135</v>
+        <v>83</v>
       </c>
       <c r="F12" cm="1">
         <f t="array" aca="1" ref="F12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>244</v>
+        <v>691</v>
       </c>
       <c r="G12" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>666</v>
+        <v>424</v>
       </c>
       <c r="H12" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>437</v>
+        <v>1401</v>
       </c>
       <c r="I12" cm="1">
         <f t="array" aca="1" ref="I12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>714</v>
+        <v>589</v>
       </c>
       <c r="J12" cm="1">
         <f t="array" aca="1" ref="J12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>1352</v>
+        <v>-453</v>
       </c>
       <c r="K12" cm="1">
         <f t="array" aca="1" ref="K12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>990</v>
+        <v>-7291</v>
       </c>
       <c r="L12" cm="1">
         <f t="array" aca="1" ref="L12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-5668</v>
+        <v>935</v>
       </c>
       <c r="M12" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>434</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -48352,51 +48352,51 @@
       </c>
       <c r="B13" cm="1">
         <f t="array" aca="1" ref="B13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>452</v>
+        <v>370</v>
       </c>
       <c r="C13" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>1306</v>
+        <v>435</v>
       </c>
       <c r="D13" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>137</v>
+        <v>409</v>
       </c>
       <c r="E13" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>96</v>
+        <v>461</v>
       </c>
       <c r="F13" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>82</v>
+        <v>528</v>
       </c>
       <c r="G13" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>477</v>
+        <v>119</v>
       </c>
       <c r="H13" cm="1">
         <f t="array" aca="1" ref="H13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>1715</v>
+        <v>961</v>
       </c>
       <c r="I13" cm="1">
         <f t="array" aca="1" ref="I13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>38</v>
+        <v>1091</v>
       </c>
       <c r="J13" cm="1">
         <f t="array" aca="1" ref="J13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>270</v>
+        <v>91</v>
       </c>
       <c r="K13" cm="1">
         <f t="array" aca="1" ref="K13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>157</v>
+        <v>-3863</v>
       </c>
       <c r="L13" cm="1">
         <f t="array" aca="1" ref="L13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-7306</v>
+        <v>719</v>
       </c>
       <c r="M13" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>410</v>
+        <v>740</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -48405,51 +48405,51 @@
       </c>
       <c r="B14" cm="1">
         <f t="array" aca="1" ref="B14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-70</v>
+        <v>85</v>
       </c>
       <c r="C14" cm="1">
         <f t="array" aca="1" ref="C14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>2806</v>
+        <v>276</v>
       </c>
       <c r="D14" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>225</v>
+        <v>459</v>
       </c>
       <c r="E14" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-852</v>
+        <v>-36</v>
       </c>
       <c r="F14" cm="1">
         <f t="array" aca="1" ref="F14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>311</v>
+        <v>5</v>
       </c>
       <c r="G14" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="H14" cm="1">
         <f t="array" aca="1" ref="H14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>218</v>
+        <v>2747</v>
       </c>
       <c r="I14" cm="1">
         <f t="array" aca="1" ref="I14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>135</v>
+        <v>-99</v>
       </c>
       <c r="J14" cm="1">
         <f t="array" aca="1" ref="J14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>8</v>
+        <v>-151</v>
       </c>
       <c r="K14" cm="1">
         <f t="array" aca="1" ref="K14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>17</v>
+        <v>-2333</v>
       </c>
       <c r="L14" cm="1">
         <f t="array" aca="1" ref="L14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-4680</v>
+        <v>23</v>
       </c>
       <c r="M14" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>-57</v>
+        <v>593</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -48458,51 +48458,51 @@
       </c>
       <c r="B15" cm="1">
         <f t="array" aca="1" ref="B15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>14</v>
+        <v>287</v>
       </c>
       <c r="C15" cm="1">
         <f t="array" aca="1" ref="C15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>663</v>
+        <v>19</v>
       </c>
       <c r="D15" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E15" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="F15" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>102</v>
+        <v>336</v>
       </c>
       <c r="G15" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="H15" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>409</v>
+        <v>742</v>
       </c>
       <c r="I15" cm="1">
         <f t="array" aca="1" ref="I15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>313</v>
+        <v>211</v>
       </c>
       <c r="J15" cm="1">
         <f t="array" aca="1" ref="J15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>306</v>
+        <v>20</v>
       </c>
       <c r="K15" cm="1">
         <f t="array" aca="1" ref="K15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>160</v>
+        <v>-319</v>
       </c>
       <c r="L15" cm="1">
         <f t="array" aca="1" ref="L15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-89</v>
+        <v>117</v>
       </c>
       <c r="M15" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>53</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -48564,51 +48564,51 @@
       </c>
       <c r="B17" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>150</v>
+        <v>1983</v>
       </c>
       <c r="C17" cm="1">
         <f t="array" aca="1" ref="C17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>4398</v>
+        <v>1076</v>
       </c>
       <c r="D17" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-3507</v>
+        <v>2488</v>
       </c>
       <c r="E17" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>362</v>
+        <v>8</v>
       </c>
       <c r="F17" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>517</v>
+        <v>41</v>
       </c>
       <c r="G17" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>394</v>
+        <v>-2224</v>
       </c>
       <c r="H17" cm="1">
         <f t="array" aca="1" ref="H17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>436</v>
+        <v>8291</v>
       </c>
       <c r="I17" cm="1">
         <f t="array" aca="1" ref="I17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>3458</v>
+        <v>412</v>
       </c>
       <c r="J17" cm="1">
         <f t="array" aca="1" ref="J17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="K17" cm="1">
         <f t="array" aca="1" ref="K17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>843</v>
+        <v>-4057</v>
       </c>
       <c r="L17" cm="1">
         <f t="array" aca="1" ref="L17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-9136</v>
+        <v>18</v>
       </c>
       <c r="M17" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>229</v>
+        <v>6282</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -48617,51 +48617,51 @@
       </c>
       <c r="B18" cm="1">
         <f t="array" aca="1" ref="B18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>38</v>
+        <v>313</v>
       </c>
       <c r="C18" cm="1">
         <f t="array" aca="1" ref="C18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>1166</v>
+        <v>29</v>
       </c>
       <c r="D18" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-106</v>
+        <v>125</v>
       </c>
       <c r="E18" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="F18" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>15</v>
+        <v>-214</v>
       </c>
       <c r="G18" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>80</v>
+        <v>-269</v>
       </c>
       <c r="H18" cm="1">
         <f t="array" aca="1" ref="H18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>28</v>
+        <v>2334</v>
       </c>
       <c r="I18" cm="1">
         <f t="array" aca="1" ref="I18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>188</v>
+        <v>-1</v>
       </c>
       <c r="J18" cm="1">
         <f t="array" aca="1" ref="J18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-88</v>
+        <v>714</v>
       </c>
       <c r="K18" cm="1">
         <f t="array" aca="1" ref="K18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-36</v>
+        <v>-1419</v>
       </c>
       <c r="L18" cm="1">
         <f t="array" aca="1" ref="L18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-55</v>
+        <v>-50</v>
       </c>
       <c r="M18" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>-470</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -48670,51 +48670,51 @@
       </c>
       <c r="B19" cm="1">
         <f t="array" aca="1" ref="B19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-7</v>
+        <v>807</v>
       </c>
       <c r="C19" cm="1">
         <f t="array" aca="1" ref="C19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D19" cm="1">
         <f t="array" aca="1" ref="D19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-329</v>
+        <v>56</v>
       </c>
       <c r="E19" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-40</v>
+        <v>-25</v>
       </c>
       <c r="F19" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>835</v>
+        <v>190</v>
       </c>
       <c r="G19" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>74</v>
+        <v>-557</v>
       </c>
       <c r="H19" cm="1">
         <f t="array" aca="1" ref="H19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>665</v>
+        <v>7017</v>
       </c>
       <c r="I19" cm="1">
         <f t="array" aca="1" ref="I19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>567</v>
+        <v>-131</v>
       </c>
       <c r="J19" cm="1">
         <f t="array" aca="1" ref="J19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>177</v>
+        <v>-1338</v>
       </c>
       <c r="K19" cm="1">
         <f t="array" aca="1" ref="K19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>200</v>
+        <v>-4530</v>
       </c>
       <c r="L19" cm="1">
         <f t="array" aca="1" ref="L19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-4821</v>
+        <v>378</v>
       </c>
       <c r="M19" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>-5</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -48723,51 +48723,51 @@
       </c>
       <c r="B20" cm="1">
         <f t="array" aca="1" ref="B20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>303</v>
+        <v>577</v>
       </c>
       <c r="C20" cm="1">
         <f t="array" aca="1" ref="C20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>2113</v>
+        <v>457</v>
       </c>
       <c r="D20" cm="1">
         <f t="array" aca="1" ref="D20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>174</v>
+        <v>756</v>
       </c>
       <c r="E20" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-405</v>
+        <v>232</v>
       </c>
       <c r="F20" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>382</v>
+        <v>435</v>
       </c>
       <c r="G20" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>546</v>
+        <v>335</v>
       </c>
       <c r="H20" cm="1">
         <f t="array" aca="1" ref="H20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>665</v>
+        <v>2179</v>
       </c>
       <c r="I20" cm="1">
         <f t="array" aca="1" ref="I20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>537</v>
+        <v>615</v>
       </c>
       <c r="J20" cm="1">
         <f t="array" aca="1" ref="J20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>183</v>
+        <v>-118</v>
       </c>
       <c r="K20" cm="1">
         <f t="array" aca="1" ref="K20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>357</v>
+        <v>-1016</v>
       </c>
       <c r="L20" cm="1">
         <f t="array" aca="1" ref="L20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-1287</v>
+        <v>61</v>
       </c>
       <c r="M20" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>842</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -48776,51 +48776,51 @@
       </c>
       <c r="B21" cm="1">
         <f t="array" aca="1" ref="B21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-250</v>
+        <v>284</v>
       </c>
       <c r="C21" cm="1">
         <f t="array" aca="1" ref="C21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>3987</v>
+        <v>-65</v>
       </c>
       <c r="D21" cm="1">
         <f t="array" aca="1" ref="D21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-775</v>
+        <v>87</v>
       </c>
       <c r="E21" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-598</v>
+        <v>-242</v>
       </c>
       <c r="F21" cm="1">
         <f t="array" aca="1" ref="F21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>60</v>
+        <v>-101</v>
       </c>
       <c r="G21" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>-178</v>
+        <v>-1227</v>
       </c>
       <c r="H21" cm="1">
         <f t="array" aca="1" ref="H21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="I21" cm="1">
         <f t="array" aca="1" ref="I21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>184</v>
+        <v>-72</v>
       </c>
       <c r="J21" cm="1">
         <f t="array" aca="1" ref="J21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-392</v>
+        <v>-300</v>
       </c>
       <c r="K21" cm="1">
         <f t="array" aca="1" ref="K21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-8</v>
+        <v>-243</v>
       </c>
       <c r="L21" cm="1">
         <f t="array" aca="1" ref="L21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-100</v>
+        <v>-88</v>
       </c>
       <c r="M21" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>-67</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -48829,51 +48829,51 @@
       </c>
       <c r="B22" cm="1">
         <f t="array" aca="1" ref="B22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="C22" cm="1">
         <f t="array" aca="1" ref="C22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="D22" cm="1">
         <f t="array" aca="1" ref="D22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E22" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="F22" cm="1">
         <f t="array" aca="1" ref="F22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>103</v>
+        <v>479</v>
       </c>
       <c r="G22" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="H22" cm="1">
         <f t="array" aca="1" ref="H22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>490</v>
+        <v>211</v>
       </c>
       <c r="I22" cm="1">
         <f t="array" aca="1" ref="I22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>238</v>
+        <v>653</v>
       </c>
       <c r="J22" cm="1">
         <f t="array" aca="1" ref="J22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>786</v>
+        <v>16</v>
       </c>
       <c r="K22" cm="1">
         <f t="array" aca="1" ref="K22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>404</v>
+        <v>-3873</v>
       </c>
       <c r="L22" cm="1">
         <f t="array" aca="1" ref="L22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-963</v>
+        <v>828</v>
       </c>
       <c r="M22" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>134</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -48882,51 +48882,51 @@
       </c>
       <c r="B23" cm="1">
         <f t="array" aca="1" ref="B23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>625</v>
+        <v>1509</v>
       </c>
       <c r="C23" cm="1">
         <f t="array" aca="1" ref="C23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>7500</v>
+        <v>187</v>
       </c>
       <c r="D23" cm="1">
         <f t="array" aca="1" ref="D23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-93</v>
+        <v>95</v>
       </c>
       <c r="E23" cm="1">
         <f t="array" aca="1" ref="E23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-1293</v>
+        <v>429</v>
       </c>
       <c r="F23" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>761</v>
+        <v>1002</v>
       </c>
       <c r="G23" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>470</v>
+        <v>-40</v>
       </c>
       <c r="H23" cm="1">
         <f t="array" aca="1" ref="H23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>2188</v>
+        <v>4947</v>
       </c>
       <c r="I23" cm="1">
         <f t="array" aca="1" ref="I23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>440</v>
+        <v>271</v>
       </c>
       <c r="J23" cm="1">
         <f t="array" aca="1" ref="J23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>1026</v>
+        <v>-429</v>
       </c>
       <c r="K23" cm="1">
         <f t="array" aca="1" ref="K23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>161</v>
+        <v>-152</v>
       </c>
       <c r="L23" cm="1">
         <f t="array" aca="1" ref="L23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-1929</v>
+        <v>1175</v>
       </c>
       <c r="M23" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>114</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -48935,51 +48935,51 @@
       </c>
       <c r="B24" cm="1">
         <f t="array" aca="1" ref="B24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>10</v>
+        <v>2636</v>
       </c>
       <c r="C24" cm="1">
         <f t="array" aca="1" ref="C24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>2875</v>
+        <v>141</v>
       </c>
       <c r="D24" cm="1">
         <f t="array" aca="1" ref="D24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>26</v>
+        <v>1547</v>
       </c>
       <c r="E24" cm="1">
         <f t="array" aca="1" ref="E24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-2943</v>
+        <v>819</v>
       </c>
       <c r="F24" cm="1">
         <f t="array" aca="1" ref="F24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>793</v>
+        <v>632</v>
       </c>
       <c r="G24" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>46</v>
+        <v>280</v>
       </c>
       <c r="H24" cm="1">
         <f t="array" aca="1" ref="H24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>2430</v>
+        <v>10884</v>
       </c>
       <c r="I24" cm="1">
         <f t="array" aca="1" ref="I24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>4327</v>
+        <v>44</v>
       </c>
       <c r="J24" cm="1">
         <f t="array" aca="1" ref="J24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>161</v>
+        <v>-2245</v>
       </c>
       <c r="K24" cm="1">
         <f t="array" aca="1" ref="K24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>561</v>
+        <v>-9287</v>
       </c>
       <c r="L24" cm="1">
         <f t="array" aca="1" ref="L24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-6352</v>
+        <v>569</v>
       </c>
       <c r="M24" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>349</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -48988,51 +48988,51 @@
       </c>
       <c r="B25" cm="1">
         <f t="array" aca="1" ref="B25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-373</v>
+        <v>1376</v>
       </c>
       <c r="C25" cm="1">
         <f t="array" aca="1" ref="C25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>1095</v>
+        <v>10</v>
       </c>
       <c r="D25" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-1583</v>
+        <v>872</v>
       </c>
       <c r="E25" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-504</v>
+        <v>-254</v>
       </c>
       <c r="F25" cm="1">
         <f t="array" aca="1" ref="F25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>75</v>
+        <v>-79</v>
       </c>
       <c r="G25" cm="1">
         <f t="array" aca="1" ref="G25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>116</v>
+        <v>-210</v>
       </c>
       <c r="H25" cm="1">
         <f t="array" aca="1" ref="H25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>457</v>
+        <v>701</v>
       </c>
       <c r="I25" cm="1">
         <f t="array" aca="1" ref="I25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>93</v>
+        <v>-170</v>
       </c>
       <c r="J25" cm="1">
         <f t="array" aca="1" ref="J25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-178</v>
+        <v>-1373</v>
       </c>
       <c r="K25" cm="1">
         <f t="array" aca="1" ref="K25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-1</v>
+        <v>-2492</v>
       </c>
       <c r="L25" cm="1">
         <f t="array" aca="1" ref="L25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-3179</v>
+        <v>0</v>
       </c>
       <c r="M25" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>-62</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -49041,51 +49041,51 @@
       </c>
       <c r="B26" cm="1">
         <f t="array" aca="1" ref="B26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="C26" cm="1">
         <f t="array" aca="1" ref="C26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>716</v>
+        <v>-88</v>
       </c>
       <c r="D26" cm="1">
         <f t="array" aca="1" ref="D26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-176</v>
+        <v>26</v>
       </c>
       <c r="E26" cm="1">
         <f t="array" aca="1" ref="E26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="F26" cm="1">
         <f t="array" aca="1" ref="F26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>213</v>
+        <v>348</v>
       </c>
       <c r="G26" cm="1">
         <f t="array" aca="1" ref="G26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>-33</v>
+        <v>-112</v>
       </c>
       <c r="H26" cm="1">
         <f t="array" aca="1" ref="H26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>1004</v>
+        <v>1924</v>
       </c>
       <c r="I26" cm="1">
         <f t="array" aca="1" ref="I26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>705</v>
+        <v>-27</v>
       </c>
       <c r="J26" cm="1">
         <f t="array" aca="1" ref="J26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>517</v>
+        <v>42</v>
       </c>
       <c r="K26" cm="1">
         <f t="array" aca="1" ref="K26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>702</v>
+        <v>-922</v>
       </c>
       <c r="L26" cm="1">
         <f t="array" aca="1" ref="L26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-1157</v>
+        <v>482</v>
       </c>
       <c r="M26" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>-58</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -49094,51 +49094,51 @@
       </c>
       <c r="B27" cm="1">
         <f t="array" aca="1" ref="B27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>29</v>
+        <v>471</v>
       </c>
       <c r="C27" cm="1">
         <f t="array" aca="1" ref="C27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>2889</v>
+        <v>-3</v>
       </c>
       <c r="D27" cm="1">
         <f t="array" aca="1" ref="D27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-208</v>
+        <v>283</v>
       </c>
       <c r="E27" cm="1">
         <f t="array" aca="1" ref="E27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-400</v>
+        <v>33</v>
       </c>
       <c r="F27" cm="1">
         <f t="array" aca="1" ref="F27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="G27" cm="1">
         <f t="array" aca="1" ref="G27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>-3</v>
+        <v>-126</v>
       </c>
       <c r="H27" cm="1">
         <f t="array" aca="1" ref="H27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>825</v>
+        <v>2342</v>
       </c>
       <c r="I27" cm="1">
         <f t="array" aca="1" ref="I27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>1898</v>
+        <v>-34</v>
       </c>
       <c r="J27" cm="1">
         <f t="array" aca="1" ref="J27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>73</v>
+        <v>-518</v>
       </c>
       <c r="K27" cm="1">
         <f t="array" aca="1" ref="K27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>177</v>
+        <v>-485</v>
       </c>
       <c r="L27" cm="1">
         <f t="array" aca="1" ref="L27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-2274</v>
+        <v>29</v>
       </c>
       <c r="M27" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>-56</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -49147,51 +49147,51 @@
       </c>
       <c r="B28" cm="1">
         <f t="array" aca="1" ref="B28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>643</v>
+        <v>3148</v>
       </c>
       <c r="C28" cm="1">
         <f t="array" aca="1" ref="C28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>2364</v>
+        <v>1347</v>
       </c>
       <c r="D28" cm="1">
         <f t="array" aca="1" ref="D28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-1882</v>
+        <v>3965</v>
       </c>
       <c r="E28" cm="1">
         <f t="array" aca="1" ref="E28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-3186</v>
+        <v>557</v>
       </c>
       <c r="F28" cm="1">
         <f t="array" aca="1" ref="F28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>3625</v>
+        <v>501</v>
       </c>
       <c r="G28" cm="1">
         <f t="array" aca="1" ref="G28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>1387</v>
+        <v>-1065</v>
       </c>
       <c r="H28" cm="1">
         <f t="array" aca="1" ref="H28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>1572</v>
+        <v>7915</v>
       </c>
       <c r="I28" cm="1">
         <f t="array" aca="1" ref="I28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>2910</v>
+        <v>1656</v>
       </c>
       <c r="J28" cm="1">
         <f t="array" aca="1" ref="J28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>771</v>
+        <v>-1627</v>
       </c>
       <c r="K28" cm="1">
         <f t="array" aca="1" ref="K28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>1295</v>
+        <v>-8809</v>
       </c>
       <c r="L28" cm="1">
         <f t="array" aca="1" ref="L28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-10898</v>
+        <v>18</v>
       </c>
       <c r="M28" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>1235</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -49200,51 +49200,51 @@
       </c>
       <c r="B29" cm="1">
         <f t="array" aca="1" ref="B29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>354</v>
+        <v>982</v>
       </c>
       <c r="C29" cm="1">
         <f t="array" aca="1" ref="C29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>4273</v>
+        <v>109</v>
       </c>
       <c r="D29" cm="1">
         <f t="array" aca="1" ref="D29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>112</v>
+        <v>306</v>
       </c>
       <c r="E29" cm="1">
         <f t="array" aca="1" ref="E29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-732</v>
+        <v>508</v>
       </c>
       <c r="F29" cm="1">
         <f t="array" aca="1" ref="F29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>10</v>
+        <v>618</v>
       </c>
       <c r="G29" cm="1">
         <f t="array" aca="1" ref="G29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>97</v>
+        <v>301</v>
       </c>
       <c r="H29" cm="1">
         <f t="array" aca="1" ref="H29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>439</v>
+        <v>307</v>
       </c>
       <c r="I29" cm="1">
         <f t="array" aca="1" ref="I29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>1848</v>
+        <v>12</v>
       </c>
       <c r="J29" cm="1">
         <f t="array" aca="1" ref="J29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>80</v>
+        <v>-476</v>
       </c>
       <c r="K29" cm="1">
         <f t="array" aca="1" ref="K29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>283</v>
+        <v>-3593</v>
       </c>
       <c r="L29" cm="1">
         <f t="array" aca="1" ref="L29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-342</v>
+        <v>168</v>
       </c>
       <c r="M29" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -49253,51 +49253,51 @@
       </c>
       <c r="B30" cm="1">
         <f t="array" aca="1" ref="B30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>577</v>
+        <v>47</v>
       </c>
       <c r="C30" cm="1">
         <f t="array" aca="1" ref="C30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>192</v>
+        <v>275</v>
       </c>
       <c r="D30" cm="1">
         <f t="array" aca="1" ref="D30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="E30" cm="1">
         <f t="array" aca="1" ref="E30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>262</v>
+        <v>598</v>
       </c>
       <c r="F30" cm="1">
         <f t="array" aca="1" ref="F30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>7</v>
+        <v>771</v>
       </c>
       <c r="G30" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>174</v>
+        <v>2</v>
       </c>
       <c r="H30" cm="1">
         <f t="array" aca="1" ref="H30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>1590</v>
+        <v>286</v>
       </c>
       <c r="I30" cm="1">
         <f t="array" aca="1" ref="I30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="J30" cm="1">
         <f t="array" aca="1" ref="J30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>431</v>
+        <v>128</v>
       </c>
       <c r="K30" cm="1">
         <f t="array" aca="1" ref="K30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>377</v>
+        <v>-90</v>
       </c>
       <c r="L30" cm="1">
         <f t="array" aca="1" ref="L30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-1011</v>
+        <v>910</v>
       </c>
       <c r="M30" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>204</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -49306,51 +49306,51 @@
       </c>
       <c r="B31" cm="1">
         <f t="array" aca="1" ref="B31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C31" cm="1">
         <f t="array" aca="1" ref="C31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>2415</v>
+        <v>78</v>
       </c>
       <c r="D31" cm="1">
         <f t="array" aca="1" ref="D31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>87</v>
+        <v>372</v>
       </c>
       <c r="E31" cm="1">
         <f t="array" aca="1" ref="E31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-70</v>
+        <v>210</v>
       </c>
       <c r="F31" cm="1">
         <f t="array" aca="1" ref="F31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="G31" cm="1">
         <f t="array" aca="1" ref="G31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="H31" cm="1">
         <f t="array" aca="1" ref="H31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>581</v>
+        <v>1858</v>
       </c>
       <c r="I31" cm="1">
         <f t="array" aca="1" ref="I31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>379</v>
+        <v>111</v>
       </c>
       <c r="J31" cm="1">
         <f t="array" aca="1" ref="J31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>227</v>
+        <v>-403</v>
       </c>
       <c r="K31" cm="1">
         <f t="array" aca="1" ref="K31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>85</v>
+        <v>-1209</v>
       </c>
       <c r="L31" cm="1">
         <f t="array" aca="1" ref="L31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-1683</v>
+        <v>410</v>
       </c>
       <c r="M31" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>389</v>
+        <v>743</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -49359,51 +49359,51 @@
       </c>
       <c r="B32" cm="1">
         <f t="array" aca="1" ref="B32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>398</v>
+        <v>105</v>
       </c>
       <c r="C32" cm="1">
         <f t="array" aca="1" ref="C32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>7357</v>
+        <v>300</v>
       </c>
       <c r="D32" cm="1">
         <f t="array" aca="1" ref="D32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>450</v>
+        <v>2283</v>
       </c>
       <c r="E32" cm="1">
         <f t="array" aca="1" ref="E32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>69</v>
+        <v>559</v>
       </c>
       <c r="F32" cm="1">
         <f t="array" aca="1" ref="F32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>2331</v>
+        <v>2303</v>
       </c>
       <c r="G32" cm="1">
         <f t="array" aca="1" ref="G32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>836</v>
+        <v>651</v>
       </c>
       <c r="H32" cm="1">
         <f t="array" aca="1" ref="H32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>2490</v>
+        <v>1266</v>
       </c>
       <c r="I32" cm="1">
         <f t="array" aca="1" ref="I32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="J32" cm="1">
         <f t="array" aca="1" ref="J32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>2458</v>
+        <v>80</v>
       </c>
       <c r="K32" cm="1">
         <f t="array" aca="1" ref="K32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>1980</v>
+        <v>-5111</v>
       </c>
       <c r="L32" cm="1">
         <f t="array" aca="1" ref="L32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-3299</v>
+        <v>1577</v>
       </c>
       <c r="M32" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>370</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -49412,51 +49412,51 @@
       </c>
       <c r="B33" cm="1">
         <f t="array" aca="1" ref="B33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="C33" cm="1">
         <f t="array" aca="1" ref="C33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>2406</v>
+        <v>-34</v>
       </c>
       <c r="D33" cm="1">
         <f t="array" aca="1" ref="D33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>35</v>
+        <v>428</v>
       </c>
       <c r="E33" cm="1">
         <f t="array" aca="1" ref="E33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-110</v>
+        <v>132</v>
       </c>
       <c r="F33" cm="1">
         <f t="array" aca="1" ref="F33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>383</v>
+        <v>283</v>
       </c>
       <c r="G33" cm="1">
         <f t="array" aca="1" ref="G33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>-24</v>
+        <v>66</v>
       </c>
       <c r="H33" cm="1">
         <f t="array" aca="1" ref="H33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>169</v>
+        <v>3648</v>
       </c>
       <c r="I33" cm="1">
         <f t="array" aca="1" ref="I33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>897</v>
+        <v>50</v>
       </c>
       <c r="J33" cm="1">
         <f t="array" aca="1" ref="J33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>72</v>
+        <v>-85</v>
       </c>
       <c r="K33" cm="1">
         <f t="array" aca="1" ref="K33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>327</v>
+        <v>-1598</v>
       </c>
       <c r="L33" cm="1">
         <f t="array" aca="1" ref="L33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-941</v>
+        <v>95</v>
       </c>
       <c r="M33" cm="1">
         <f t="array" aca="1" ref="M33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>166</v>
+        <v>731</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -49465,51 +49465,51 @@
       </c>
       <c r="B34" cm="1">
         <f t="array" aca="1" ref="B34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>183</v>
+        <v>110</v>
       </c>
       <c r="C34" cm="1">
         <f t="array" aca="1" ref="C34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>332</v>
+        <v>98</v>
       </c>
       <c r="D34" cm="1">
         <f t="array" aca="1" ref="D34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>117</v>
+        <v>255</v>
       </c>
       <c r="E34" cm="1">
         <f t="array" aca="1" ref="E34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-1</v>
+        <v>328</v>
       </c>
       <c r="F34" cm="1">
         <f t="array" aca="1" ref="F34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>364</v>
+        <v>139</v>
       </c>
       <c r="G34" cm="1">
         <f t="array" aca="1" ref="G34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>186</v>
+        <v>273</v>
       </c>
       <c r="H34" cm="1">
         <f t="array" aca="1" ref="H34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>163</v>
+        <v>1322</v>
       </c>
       <c r="I34" cm="1">
         <f t="array" aca="1" ref="I34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>324</v>
+        <v>184</v>
       </c>
       <c r="J34" cm="1">
         <f t="array" aca="1" ref="J34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>347</v>
+        <v>-2</v>
       </c>
       <c r="K34" cm="1">
         <f t="array" aca="1" ref="K34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>364</v>
+        <v>-6435</v>
       </c>
       <c r="L34" cm="1">
         <f t="array" aca="1" ref="L34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-6988</v>
+        <v>231</v>
       </c>
       <c r="M34" cm="1">
         <f t="array" aca="1" ref="M34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>239</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -49518,51 +49518,51 @@
       </c>
       <c r="B35" cm="1">
         <f t="array" aca="1" ref="B35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>273</v>
+        <v>789</v>
       </c>
       <c r="C35" cm="1">
         <f t="array" aca="1" ref="C35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>2187</v>
+        <v>191</v>
       </c>
       <c r="D35" cm="1">
         <f t="array" aca="1" ref="D35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="E35" cm="1">
         <f t="array" aca="1" ref="E35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-280</v>
+        <v>464</v>
       </c>
       <c r="F35" cm="1">
         <f t="array" aca="1" ref="F35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="G35" cm="1">
         <f t="array" aca="1" ref="G35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="H35" cm="1">
         <f t="array" aca="1" ref="H35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>32</v>
+        <v>2832</v>
       </c>
       <c r="I35" cm="1">
         <f t="array" aca="1" ref="I35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>444</v>
+        <v>685</v>
       </c>
       <c r="J35" cm="1">
         <f t="array" aca="1" ref="J35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>209</v>
+        <v>-22</v>
       </c>
       <c r="K35" cm="1">
         <f t="array" aca="1" ref="K35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>714</v>
+        <v>-340</v>
       </c>
       <c r="L35" cm="1">
         <f t="array" aca="1" ref="L35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-1883</v>
+        <v>331</v>
       </c>
       <c r="M35" cm="1">
         <f t="array" aca="1" ref="M35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>670</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -49571,51 +49571,51 @@
       </c>
       <c r="B36" cm="1">
         <f t="array" aca="1" ref="B36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="C36" cm="1">
         <f t="array" aca="1" ref="C36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>1216</v>
+        <v>25</v>
       </c>
       <c r="D36" cm="1">
         <f t="array" aca="1" ref="D36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E36" cm="1">
         <f t="array" aca="1" ref="E36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-11</v>
+        <v>63</v>
       </c>
       <c r="F36" cm="1">
         <f t="array" aca="1" ref="F36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>166</v>
+        <v>7</v>
       </c>
       <c r="G36" cm="1">
         <f t="array" aca="1" ref="G36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H36" cm="1">
         <f t="array" aca="1" ref="H36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>365</v>
+        <v>808</v>
       </c>
       <c r="I36" cm="1">
         <f t="array" aca="1" ref="I36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>228</v>
+        <v>6</v>
       </c>
       <c r="J36" cm="1">
         <f t="array" aca="1" ref="J36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="K36" cm="1">
         <f t="array" aca="1" ref="K36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>141</v>
+        <v>-299</v>
       </c>
       <c r="L36" cm="1">
         <f t="array" aca="1" ref="L36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-1169</v>
+        <v>48</v>
       </c>
       <c r="M36" cm="1">
         <f t="array" aca="1" ref="M36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>4</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -49624,51 +49624,51 @@
       </c>
       <c r="B37" cm="1">
         <f t="array" aca="1" ref="B37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="C37" cm="1">
         <f t="array" aca="1" ref="C37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>542</v>
+        <v>178</v>
       </c>
       <c r="D37" cm="1">
         <f t="array" aca="1" ref="D37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-158</v>
+        <v>16</v>
       </c>
       <c r="E37" cm="1">
         <f t="array" aca="1" ref="E37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>225</v>
+        <v>88</v>
       </c>
       <c r="F37" cm="1">
         <f t="array" aca="1" ref="F37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="G37" cm="1">
         <f t="array" aca="1" ref="G37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>11</v>
+        <v>-161</v>
       </c>
       <c r="H37" cm="1">
         <f t="array" aca="1" ref="H37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>179</v>
+        <v>450</v>
       </c>
       <c r="I37" cm="1">
         <f t="array" aca="1" ref="I37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>333</v>
+        <v>115</v>
       </c>
       <c r="J37" cm="1">
         <f t="array" aca="1" ref="J37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="K37" cm="1">
         <f t="array" aca="1" ref="K37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>147</v>
+        <v>-26</v>
       </c>
       <c r="L37" cm="1">
         <f t="array" aca="1" ref="L37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-304</v>
+        <v>65</v>
       </c>
       <c r="M37" cm="1">
         <f t="array" aca="1" ref="M37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>27</v>
+        <v>493</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -49677,51 +49677,51 @@
       </c>
       <c r="B38" cm="1">
         <f t="array" aca="1" ref="B38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>286</v>
+        <v>152</v>
       </c>
       <c r="C38" cm="1">
         <f t="array" aca="1" ref="C38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="D38" cm="1">
         <f t="array" aca="1" ref="D38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>192</v>
+        <v>400</v>
       </c>
       <c r="E38" cm="1">
         <f t="array" aca="1" ref="E38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-789</v>
+        <v>338</v>
       </c>
       <c r="F38" cm="1">
         <f t="array" aca="1" ref="F38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>523</v>
+        <v>562</v>
       </c>
       <c r="G38" cm="1">
         <f t="array" aca="1" ref="G38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="H38" cm="1">
         <f t="array" aca="1" ref="H38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>2307</v>
+        <v>5655</v>
       </c>
       <c r="I38" cm="1">
         <f t="array" aca="1" ref="I38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>177</v>
+        <v>374</v>
       </c>
       <c r="J38" cm="1">
         <f t="array" aca="1" ref="J38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>543</v>
+        <v>-670</v>
       </c>
       <c r="K38" cm="1">
         <f t="array" aca="1" ref="K38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>215</v>
+        <v>-7760</v>
       </c>
       <c r="L38" cm="1">
         <f t="array" aca="1" ref="L38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-7650</v>
+        <v>761</v>
       </c>
       <c r="M38" cm="1">
         <f t="array" aca="1" ref="M38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>506</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -49730,51 +49730,51 @@
       </c>
       <c r="B39" cm="1">
         <f t="array" aca="1" ref="B39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>170</v>
+        <v>405</v>
       </c>
       <c r="C39" cm="1">
         <f t="array" aca="1" ref="C39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>1821</v>
+        <v>55</v>
       </c>
       <c r="D39" cm="1">
         <f t="array" aca="1" ref="D39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-17</v>
+        <v>59</v>
       </c>
       <c r="E39" cm="1">
         <f t="array" aca="1" ref="E39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-5</v>
+        <v>59</v>
       </c>
       <c r="F39" cm="1">
         <f t="array" aca="1" ref="F39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="G39" cm="1">
         <f t="array" aca="1" ref="G39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>5</v>
+        <v>-12</v>
       </c>
       <c r="H39" cm="1">
         <f t="array" aca="1" ref="H39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>113</v>
+        <v>1021</v>
       </c>
       <c r="I39" cm="1">
         <f t="array" aca="1" ref="I39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="J39" cm="1">
         <f t="array" aca="1" ref="J39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>171</v>
+        <v>-19</v>
       </c>
       <c r="K39" cm="1">
         <f t="array" aca="1" ref="K39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>742</v>
+        <v>-34</v>
       </c>
       <c r="L39" cm="1">
         <f t="array" aca="1" ref="L39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-1500</v>
+        <v>604</v>
       </c>
       <c r="M39" cm="1">
         <f t="array" aca="1" ref="M39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>186</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -49783,51 +49783,51 @@
       </c>
       <c r="B40" cm="1">
         <f t="array" aca="1" ref="B40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>382</v>
+        <v>53</v>
       </c>
       <c r="C40" cm="1">
         <f t="array" aca="1" ref="C40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D40" cm="1">
         <f t="array" aca="1" ref="D40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E40" cm="1">
         <f t="array" aca="1" ref="E40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F40" cm="1">
         <f t="array" aca="1" ref="F40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>170</v>
+        <v>337</v>
       </c>
       <c r="G40" cm="1">
         <f t="array" aca="1" ref="G40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>229</v>
+        <v>87</v>
       </c>
       <c r="H40" cm="1">
         <f t="array" aca="1" ref="H40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>601</v>
+        <v>1160</v>
       </c>
       <c r="I40" cm="1">
         <f t="array" aca="1" ref="I40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>332</v>
+        <v>75</v>
       </c>
       <c r="J40" cm="1">
         <f t="array" aca="1" ref="J40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="K40" cm="1">
         <f t="array" aca="1" ref="K40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>396</v>
+        <v>-853</v>
       </c>
       <c r="L40" cm="1">
         <f t="array" aca="1" ref="L40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-1190</v>
+        <v>244</v>
       </c>
       <c r="M40" cm="1">
         <f t="array" aca="1" ref="M40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>220</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -49836,51 +49836,51 @@
       </c>
       <c r="B41" cm="1">
         <f t="array" aca="1" ref="B41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="C41" cm="1">
         <f t="array" aca="1" ref="C41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>589</v>
+        <v>-1</v>
       </c>
       <c r="D41" cm="1">
         <f t="array" aca="1" ref="D41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E41" cm="1">
         <f t="array" aca="1" ref="E41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="F41" cm="1">
         <f t="array" aca="1" ref="F41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="G41" cm="1">
         <f t="array" aca="1" ref="G41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="H41" cm="1">
         <f t="array" aca="1" ref="H41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>138</v>
+        <v>257</v>
       </c>
       <c r="I41" cm="1">
         <f t="array" aca="1" ref="I41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J41" cm="1">
         <f t="array" aca="1" ref="J41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K41" cm="1">
         <f t="array" aca="1" ref="K41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>99</v>
+        <v>-1018</v>
       </c>
       <c r="L41" cm="1">
         <f t="array" aca="1" ref="L41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-1344</v>
+        <v>52</v>
       </c>
       <c r="M41" cm="1">
         <f t="array" aca="1" ref="M41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -49889,51 +49889,51 @@
       </c>
       <c r="B42" cm="1">
         <f t="array" aca="1" ref="B42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="C42" cm="1">
         <f t="array" aca="1" ref="C42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>502</v>
+        <v>-165</v>
       </c>
       <c r="D42" cm="1">
         <f t="array" aca="1" ref="D42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>670</v>
+        <v>104</v>
       </c>
       <c r="E42" cm="1">
         <f t="array" aca="1" ref="E42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>101</v>
+        <v>371</v>
       </c>
       <c r="F42" cm="1">
         <f t="array" aca="1" ref="F42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G42" cm="1">
         <f t="array" aca="1" ref="G42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>-59</v>
+        <v>337</v>
       </c>
       <c r="H42" cm="1">
         <f t="array" aca="1" ref="H42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>1862</v>
+        <v>428</v>
       </c>
       <c r="I42" cm="1">
         <f t="array" aca="1" ref="I42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="J42" cm="1">
         <f t="array" aca="1" ref="J42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>506</v>
+        <v>204</v>
       </c>
       <c r="K42" cm="1">
         <f t="array" aca="1" ref="K42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>579</v>
+        <v>-1035</v>
       </c>
       <c r="L42" cm="1">
         <f t="array" aca="1" ref="L42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-1791</v>
+        <v>446</v>
       </c>
       <c r="M42" cm="1">
         <f t="array" aca="1" ref="M42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>11</v>
+        <v>835</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -49942,51 +49942,51 @@
       </c>
       <c r="B43" cm="1">
         <f t="array" aca="1" ref="B43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>138</v>
+        <v>422</v>
       </c>
       <c r="C43" cm="1">
         <f t="array" aca="1" ref="C43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>1056</v>
+        <v>229</v>
       </c>
       <c r="D43" cm="1">
         <f t="array" aca="1" ref="D43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="E43" cm="1">
         <f t="array" aca="1" ref="E43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>61</v>
+        <v>386</v>
       </c>
       <c r="F43" cm="1">
         <f t="array" aca="1" ref="F43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="G43" cm="1">
         <f t="array" aca="1" ref="G43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H43" cm="1">
         <f t="array" aca="1" ref="H43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>215</v>
+        <v>593</v>
       </c>
       <c r="I43" cm="1">
         <f t="array" aca="1" ref="I43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>376</v>
+        <v>85</v>
       </c>
       <c r="J43" cm="1">
         <f t="array" aca="1" ref="J43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>282</v>
+        <v>61</v>
       </c>
       <c r="K43" cm="1">
         <f t="array" aca="1" ref="K43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>769</v>
+        <v>-1408</v>
       </c>
       <c r="L43" cm="1">
         <f t="array" aca="1" ref="L43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-3289</v>
+        <v>348</v>
       </c>
       <c r="M43" cm="1">
         <f t="array" aca="1" ref="M43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>52</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -49995,51 +49995,51 @@
       </c>
       <c r="B44" cm="1">
         <f t="array" aca="1" ref="B44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C44" cm="1">
         <f t="array" aca="1" ref="C44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>729</v>
+        <v>11</v>
       </c>
       <c r="D44" cm="1">
         <f t="array" aca="1" ref="D44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>321</v>
+        <v>236</v>
       </c>
       <c r="E44" cm="1">
         <f t="array" aca="1" ref="E44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="F44" cm="1">
         <f t="array" aca="1" ref="F44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="G44" cm="1">
         <f t="array" aca="1" ref="G44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>95</v>
+        <v>356</v>
       </c>
       <c r="H44" cm="1">
         <f t="array" aca="1" ref="H44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>575</v>
+        <v>613</v>
       </c>
       <c r="I44" cm="1">
         <f t="array" aca="1" ref="I44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="J44" cm="1">
         <f t="array" aca="1" ref="J44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>237</v>
+        <v>57</v>
       </c>
       <c r="K44" cm="1">
         <f t="array" aca="1" ref="K44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>78</v>
+        <v>-780</v>
       </c>
       <c r="L44" cm="1">
         <f t="array" aca="1" ref="L44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-879</v>
+        <v>105</v>
       </c>
       <c r="M44" cm="1">
         <f t="array" aca="1" ref="M44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>82</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -50048,51 +50048,51 @@
       </c>
       <c r="B45" cm="1">
         <f t="array" aca="1" ref="B45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="C45" cm="1">
         <f t="array" aca="1" ref="C45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>243</v>
+        <v>-23</v>
       </c>
       <c r="D45" cm="1">
         <f t="array" aca="1" ref="D45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="E45" cm="1">
         <f t="array" aca="1" ref="E45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>397</v>
+        <v>206</v>
       </c>
       <c r="F45" cm="1">
         <f t="array" aca="1" ref="F45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>4</v>
+        <v>368</v>
       </c>
       <c r="G45" cm="1">
         <f t="array" aca="1" ref="G45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>-93</v>
+        <v>46</v>
       </c>
       <c r="H45" cm="1">
         <f t="array" aca="1" ref="H45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>972</v>
+        <v>1094</v>
       </c>
       <c r="I45" cm="1">
         <f t="array" aca="1" ref="I45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="J45" cm="1">
         <f t="array" aca="1" ref="J45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>324</v>
+        <v>520</v>
       </c>
       <c r="K45" cm="1">
         <f t="array" aca="1" ref="K45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>382</v>
+        <v>-1057</v>
       </c>
       <c r="L45" cm="1">
         <f t="array" aca="1" ref="L45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-197</v>
+        <v>537</v>
       </c>
       <c r="M45" cm="1">
         <f t="array" aca="1" ref="M45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>16</v>
+        <v>545</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -50101,51 +50101,51 @@
       </c>
       <c r="B46" cm="1">
         <f t="array" aca="1" ref="B46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="C46" cm="1">
         <f t="array" aca="1" ref="C46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>355</v>
+        <v>-3</v>
       </c>
       <c r="D46" cm="1">
         <f t="array" aca="1" ref="D46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="E46" cm="1">
         <f t="array" aca="1" ref="E46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="F46" cm="1">
         <f t="array" aca="1" ref="F46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G46" cm="1">
         <f t="array" aca="1" ref="G46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>-24</v>
+        <v>60</v>
       </c>
       <c r="H46" cm="1">
         <f t="array" aca="1" ref="H46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="I46" cm="1">
         <f t="array" aca="1" ref="I46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="J46" cm="1">
         <f t="array" aca="1" ref="J46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="K46" cm="1">
         <f t="array" aca="1" ref="K46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>204</v>
+        <v>-389</v>
       </c>
       <c r="L46" cm="1">
         <f t="array" aca="1" ref="L46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-287</v>
+        <v>47</v>
       </c>
       <c r="M46" cm="1">
         <f t="array" aca="1" ref="M46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>49</v>
+        <v>788</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -50154,51 +50154,51 @@
       </c>
       <c r="B47" cm="1">
         <f t="array" aca="1" ref="B47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>463</v>
+        <v>1162</v>
       </c>
       <c r="C47" cm="1">
         <f t="array" aca="1" ref="C47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>1950</v>
+        <v>549</v>
       </c>
       <c r="D47" cm="1">
         <f t="array" aca="1" ref="D47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>27</v>
+        <v>433</v>
       </c>
       <c r="E47" cm="1">
         <f t="array" aca="1" ref="E47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>371</v>
+        <v>730</v>
       </c>
       <c r="F47" cm="1">
         <f t="array" aca="1" ref="F47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>460</v>
+        <v>43</v>
       </c>
       <c r="G47" cm="1">
         <f t="array" aca="1" ref="G47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>502</v>
+        <v>226</v>
       </c>
       <c r="H47" cm="1">
         <f t="array" aca="1" ref="H47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>3004</v>
+        <v>2646</v>
       </c>
       <c r="I47" cm="1">
         <f t="array" aca="1" ref="I47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="J47" cm="1">
         <f t="array" aca="1" ref="J47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="K47" cm="1">
         <f t="array" aca="1" ref="K47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>91</v>
+        <v>-1507</v>
       </c>
       <c r="L47" cm="1">
         <f t="array" aca="1" ref="L47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-2367</v>
+        <v>452</v>
       </c>
       <c r="M47" cm="1">
         <f t="array" aca="1" ref="M47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>438</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -50207,51 +50207,51 @@
       </c>
       <c r="B49" cm="1">
         <f t="array" aca="1" ref="B49:M49" ca="1">TRANSPOSE(_xlfn.SORTBY(_xlfn.SEQUENCE(12),_xlfn.RANDARRAY(12)))</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C49">
         <f ca="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49">
         <f ca="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E49">
         <f ca="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F49">
         <f ca="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G49">
         <f ca="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H49">
         <f ca="1"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I49">
         <f ca="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J49">
         <f ca="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K49">
         <f ca="1"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L49">
         <f ca="1"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M49">
         <f ca="1"/>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
